--- a/profiles.xlsx
+++ b/profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,92 +436,88 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>profile_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>section</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>profile_id</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Praneeth Veleti</t>
+          <t>RACI0001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+          <t>ram</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">sri indu </t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10th</t>
+          <t>CID</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ukg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SURV-0001</t>
+          <t>c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SURV-0002</t>
+          <t>RACI0002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">phani </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+          <t>ramba ho</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -530,91 +526,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sri i</t>
+          <t>CID</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10th</t>
+          <t>ukg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LEAR0003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>leomonster_1412</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>arena</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SENA0004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SELVA RAJ</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NARAYANA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>LKG</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
     </row>

--- a/profiles.xlsx
+++ b/profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>dob</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>age</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>age_full</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>section</t>
         </is>
@@ -481,25 +491,29 @@
           <t>ram</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>CID</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ukg</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>c</t>
         </is>
@@ -516,27 +530,313 @@
           <t>ramba ho</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>CID</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>ukg</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LECI0003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leomonster_1412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1y 6m 25d 11:47:42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CID</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ukg</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PRCI0004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>praneeth</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2y 8m 0d 12:24:33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>cid</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PRCI0005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>praneeth</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2y 8m 0d 12:24:33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>cid</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LEAR0006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>leo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2y 8m 6d 10:19:52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>arena</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ukg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PHAR0007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>phani</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2y 11m 13d 11:01:45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>arena</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MUSR0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mucharla Sreelekha</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2004-01-25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22y 0m 28d 20:51:01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sri indu college of engineering &amp; technology</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/profiles.xlsx
+++ b/profiles.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,47 +422,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>profile_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>surname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>dob</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>age_full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>section</t>
         </is>
@@ -483,123 +481,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RACI0001</t>
+          <t>LB080721MCII</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ram</t>
+          <t>leo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>4y 7m 15d 18:39:33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>CID</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ukg</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>c</t>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RACI0002</t>
+          <t>PHSR0002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ramba ho</t>
+          <t>phani</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>3y 0m 0d 21:25:48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CID</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ukg</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>sri indu</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LECI0003</t>
+          <t>KV260704SII</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>leomonster_1412</t>
+          <t>kirthi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>vardhan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1y 6m 25d 11:47:42</t>
-        </is>
+          <t>2004-07-26</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>21y 6m 29d 00:11:38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>CID</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ukg</t>
+          <t>sri indu</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -608,139 +630,163 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PRCI0004</t>
+          <t>DP241122SCH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>praneeth</t>
+          <t>damodhR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>puma</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2y 8m 0d 12:24:33</t>
-        </is>
+          <t>2022-11-24</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>3y 3m 0d 00:23:13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>cid</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>sri chaithanya</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>lkg</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>A</t>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PRCI0005</t>
+          <t>KR240720MWEH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>praneeth</t>
+          <t>kirthi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>reddy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2y 8m 0d 12:24:33</t>
-        </is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>5y 7m 0d 10:55:13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>cid</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>westside</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>lkg</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>A</t>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LEAR0006</t>
+          <t>PS160621MWEH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>leo</t>
+          <t>Praneeth</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>sharma</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2y 8m 6d 10:19:52</t>
-        </is>
+          <t>2021-06-16</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>4y 8m 8d 11:05:46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>arena</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ukg</t>
+          <t>westside</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -749,94 +795,330 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PHAR0007</t>
+          <t>LG171122MSIH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>phani</t>
+          <t>leo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>green</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2y 11m 13d 11:01:45</t>
-        </is>
+          <t>2022-11-17</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>3y 3m 7d 12:14:42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>arena</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>LKG</t>
+          <t>sri indu</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MUSR0008</t>
+          <t>LM220222MSIH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mucharla Sreelekha</t>
+          <t>leo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2004-01-25</t>
+          <t>math</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>22y 0m 28d 20:51:01</t>
-        </is>
+          <t>2022-02-22</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>4y 0m 2d 15:41:49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>sri indu</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>JA240221MSIH</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>jhon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ali</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2021-02-24</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5y 0m 0d 15:47:16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>sri indu</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>JP100221MSIH</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>jhon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>paul</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5y 0m 14d 15:50:55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>sri indu</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SB150622FSIH</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>swetha</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3y 8m 9d 16:00:12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>sri indu college of engineering &amp; technology</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>A</t>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>sri indu</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SR160622FSIH</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>swetha</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>reddy</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3y 8m 8d 16:03:50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>sri indu</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>

--- a/profiles.xlsx
+++ b/profiles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1122,6 +1122,391 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LK150722MSIH</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>leo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>koustubh</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3y 7m 9d 17:41:50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>sri indu</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PK150722MSIA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>phani</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>koustubh</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3y 7m 11d 11:44:24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>sri indu</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>abids</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>lkg</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JR140722MSIH</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>jhon</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>reddy</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3y 7m 12d 12:51:39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>sri indu</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BV090123MSAT</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bhargavi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3y 1m 17d 16:06:27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>st anns</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>tarnaka</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JV191122FDOH</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>junnu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>veleti</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2022-11-19</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3y 3m 7d 16:27:22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>donbosco</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>hydershakote</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VV191122FDOH</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>vibha</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>veleti</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2022-11-19</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3y 3m 7d 16:37:11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>donbosco</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>hydershakote</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PV181122FDOH</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>pallavi</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>veleti</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2022-11-18</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3y 3m 8d 16:53:14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>donbosco</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>hydershakote</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>LKG</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
